--- a/Report/Discrete Results.xlsx
+++ b/Report/Discrete Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronfainman/Documents/4th Year/Lab Project/MIMIClll-Matched/MimicMiner/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD392888-DE7C-FA44-B19A-9F988F37A409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A6AE30-1DF8-6D4F-BE9D-AF31F1C18AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="-20240" windowWidth="27640" windowHeight="15300" xr2:uid="{B5C6DB41-743D-B94E-8182-81E49F9413B5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
   <si>
     <t>Full Waveform</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Regression ANN (4x512)</t>
   </si>
   <si>
-    <t>BiLSTM-LSTM-FC</t>
-  </si>
-  <si>
     <t>1D Convolution NN</t>
   </si>
   <si>
@@ -87,21 +84,6 @@
     <t>Spectrogram + 2D Conv NN</t>
   </si>
   <si>
-    <t>0.032935</t>
-  </si>
-  <si>
-    <t>0.009464</t>
-  </si>
-  <si>
-    <t>13.71</t>
-  </si>
-  <si>
-    <t>44.8</t>
-  </si>
-  <si>
-    <t>0.224</t>
-  </si>
-  <si>
     <t>6.62</t>
   </si>
   <si>
@@ -145,6 +127,180 @@
   </si>
   <si>
     <t>0.0032</t>
+  </si>
+  <si>
+    <t>0.0122</t>
+  </si>
+  <si>
+    <t>0.0111</t>
+  </si>
+  <si>
+    <t>7.34</t>
+  </si>
+  <si>
+    <t>72.9</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.01994</t>
+  </si>
+  <si>
+    <t>14.03</t>
+  </si>
+  <si>
+    <t>46.5</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.0449</t>
+  </si>
+  <si>
+    <t>13.75</t>
+  </si>
+  <si>
+    <t>47.3</t>
+  </si>
+  <si>
+    <t>0.236</t>
+  </si>
+  <si>
+    <t>0.0110</t>
+  </si>
+  <si>
+    <t>6.54</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>0.191</t>
+  </si>
+  <si>
+    <t>0.0199</t>
+  </si>
+  <si>
+    <t>7.16</t>
+  </si>
+  <si>
+    <t>74.3</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>BiLSTM(128)-LSTM(128)-LSTM(128)-FC*</t>
+  </si>
+  <si>
+    <t>*using only (last) 2s of data</t>
+  </si>
+  <si>
+    <t>0.0107</t>
+  </si>
+  <si>
+    <t>5.73</t>
+  </si>
+  <si>
+    <t>83.7</t>
+  </si>
+  <si>
+    <t>0.781</t>
+  </si>
+  <si>
+    <t>0.0024</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>96.6</t>
+  </si>
+  <si>
+    <t>0.721</t>
+  </si>
+  <si>
+    <t>0.0027</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>95.5</t>
+  </si>
+  <si>
+    <t>0.782</t>
+  </si>
+  <si>
+    <t>0.0036</t>
+  </si>
+  <si>
+    <t>93.4</t>
+  </si>
+  <si>
+    <t>3.66</t>
+  </si>
+  <si>
+    <t>0.0035</t>
+  </si>
+  <si>
+    <t>3.71</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.0109</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>83.1</t>
+  </si>
+  <si>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>0.0242</t>
+  </si>
+  <si>
+    <t>7.46</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.0060</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>90.2</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.0067</t>
+  </si>
+  <si>
+    <t>4.27</t>
+  </si>
+  <si>
+    <t>86.7</t>
+  </si>
+  <si>
+    <t>0.542</t>
   </si>
 </sst>
 </file>
@@ -595,16 +751,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAD8544-942D-1144-84B0-83F5EE670AFF}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" customWidth="1"/>
     <col min="13" max="13" width="16.1640625" customWidth="1"/>
@@ -676,51 +832,83 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
+      <c r="K3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7"/>
+      <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -743,7 +931,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -761,7 +949,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -779,7 +967,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -824,23 +1012,47 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
+      <c r="C11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -848,40 +1060,40 @@
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="K12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="N12" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -889,36 +1101,84 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
@@ -950,10 +1210,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
@@ -968,6 +1228,11 @@
       <c r="M17" s="9"/>
       <c r="N17" s="10"/>
     </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A3:A8"/>

--- a/Report/Discrete Results.xlsx
+++ b/Report/Discrete Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronfainman/Documents/4th Year/Lab Project/MIMIClll-Matched/MimicMiner/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A6AE30-1DF8-6D4F-BE9D-AF31F1C18AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72C3429-2C13-0B40-BBF8-5A9FA55E6172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="-20240" windowWidth="27640" windowHeight="15300" xr2:uid="{B5C6DB41-743D-B94E-8182-81E49F9413B5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
   <si>
     <t>Full Waveform</t>
   </si>
@@ -234,39 +234,6 @@
     <t>0.782</t>
   </si>
   <si>
-    <t>0.0036</t>
-  </si>
-  <si>
-    <t>93.4</t>
-  </si>
-  <si>
-    <t>3.66</t>
-  </si>
-  <si>
-    <t>0.0035</t>
-  </si>
-  <si>
-    <t>3.71</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.0109</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>83.1</t>
-  </si>
-  <si>
-    <t>0.769</t>
-  </si>
-  <si>
     <t>0.0242</t>
   </si>
   <si>
@@ -301,6 +268,144 @@
   </si>
   <si>
     <t>0.542</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>27.1</t>
+  </si>
+  <si>
+    <t>0.1107</t>
+  </si>
+  <si>
+    <t>0.0799</t>
+  </si>
+  <si>
+    <t>22.2</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>0.00548</t>
+  </si>
+  <si>
+    <t>0.00274</t>
+  </si>
+  <si>
+    <t>0.0187</t>
+  </si>
+  <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>60.3</t>
+  </si>
+  <si>
+    <t>0.00695</t>
+  </si>
+  <si>
+    <t>Regression SVM*</t>
+  </si>
+  <si>
+    <t>No convergence</t>
+  </si>
+  <si>
+    <t>Tree (fitrtree)</t>
+  </si>
+  <si>
+    <t>0.0423</t>
+  </si>
+  <si>
+    <t>13.78</t>
+  </si>
+  <si>
+    <t>44.4</t>
+  </si>
+  <si>
+    <t>0.139</t>
+  </si>
+  <si>
+    <t>0.0088</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>84.5</t>
+  </si>
+  <si>
+    <t>0.0779</t>
+  </si>
+  <si>
+    <t>0.0115</t>
+  </si>
+  <si>
+    <t>74.9</t>
+  </si>
+  <si>
+    <t>7.13</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>0.0271</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>35.8</t>
+  </si>
+  <si>
+    <t>0.000149</t>
+  </si>
+  <si>
+    <t>0.0097</t>
+  </si>
+  <si>
+    <t>5.26</t>
+  </si>
+  <si>
+    <t>86.1</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>94.1</t>
+  </si>
+  <si>
+    <t>0.748</t>
+  </si>
+  <si>
+    <t>0.0374</t>
+  </si>
+  <si>
+    <t>0.0081</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>8.79</t>
+  </si>
+  <si>
+    <t>62.4</t>
   </si>
 </sst>
 </file>
@@ -316,12 +421,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -416,20 +527,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -437,6 +536,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,7 +882,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,466 +895,552 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="2" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="2" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="7"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>88</v>
+      <c r="C14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="7"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
@@ -1234,13 +1448,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A11:A14"/>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="C7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Report/Discrete Results.xlsx
+++ b/Report/Discrete Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronfainman/Documents/4th Year/Lab Project/MIMIClll-Matched/MimicMiner/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72C3429-2C13-0B40-BBF8-5A9FA55E6172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930B89D5-6CD0-6442-8FD4-1A599876390E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="-20240" windowWidth="27640" windowHeight="15300" xr2:uid="{B5C6DB41-743D-B94E-8182-81E49F9413B5}"/>
+    <workbookView xWindow="3100" yWindow="-17880" windowWidth="27640" windowHeight="15300" xr2:uid="{B5C6DB41-743D-B94E-8182-81E49F9413B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="151">
   <si>
     <t>Full Waveform</t>
   </si>
@@ -99,9 +99,6 @@
     <t>86.5</t>
   </si>
   <si>
-    <t>0.819</t>
-  </si>
-  <si>
     <t>3.65</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>94.9</t>
   </si>
   <si>
-    <t>0.616</t>
-  </si>
-  <si>
     <t>94.2</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>46.5</t>
   </si>
   <si>
-    <t>0.22</t>
-  </si>
-  <si>
     <t>0.0449</t>
   </si>
   <si>
@@ -165,9 +156,6 @@
     <t>47.3</t>
   </si>
   <si>
-    <t>0.236</t>
-  </si>
-  <si>
     <t>0.0110</t>
   </si>
   <si>
@@ -177,9 +165,6 @@
     <t>80.0</t>
   </si>
   <si>
-    <t>0.191</t>
-  </si>
-  <si>
     <t>0.0199</t>
   </si>
   <si>
@@ -189,9 +174,6 @@
     <t>74.3</t>
   </si>
   <si>
-    <t>0.286</t>
-  </si>
-  <si>
     <t>BiLSTM(128)-LSTM(128)-LSTM(128)-FC*</t>
   </si>
   <si>
@@ -207,33 +189,12 @@
     <t>83.7</t>
   </si>
   <si>
-    <t>0.781</t>
-  </si>
-  <si>
     <t>0.0024</t>
   </si>
   <si>
-    <t>2.76</t>
-  </si>
-  <si>
-    <t>96.6</t>
-  </si>
-  <si>
-    <t>0.721</t>
-  </si>
-  <si>
     <t>0.0027</t>
   </si>
   <si>
-    <t>3.02</t>
-  </si>
-  <si>
-    <t>95.5</t>
-  </si>
-  <si>
-    <t>0.782</t>
-  </si>
-  <si>
     <t>0.0242</t>
   </si>
   <si>
@@ -243,9 +204,6 @@
     <t>77.0</t>
   </si>
   <si>
-    <t>0.55</t>
-  </si>
-  <si>
     <t>0.0060</t>
   </si>
   <si>
@@ -255,9 +213,6 @@
     <t>90.2</t>
   </si>
   <si>
-    <t>0.49</t>
-  </si>
-  <si>
     <t>0.0067</t>
   </si>
   <si>
@@ -267,9 +222,6 @@
     <t>86.7</t>
   </si>
   <si>
-    <t>0.542</t>
-  </si>
-  <si>
     <t>22.5</t>
   </si>
   <si>
@@ -288,12 +240,6 @@
     <t>10.1</t>
   </si>
   <si>
-    <t>0.00548</t>
-  </si>
-  <si>
-    <t>0.00274</t>
-  </si>
-  <si>
     <t>0.0187</t>
   </si>
   <si>
@@ -303,9 +249,6 @@
     <t>60.3</t>
   </si>
   <si>
-    <t>0.00695</t>
-  </si>
-  <si>
     <t>Regression SVM*</t>
   </si>
   <si>
@@ -324,9 +267,6 @@
     <t>44.4</t>
   </si>
   <si>
-    <t>0.139</t>
-  </si>
-  <si>
     <t>0.0088</t>
   </si>
   <si>
@@ -348,9 +288,6 @@
     <t>7.13</t>
   </si>
   <si>
-    <t>0.188</t>
-  </si>
-  <si>
     <t>0.0271</t>
   </si>
   <si>
@@ -360,9 +297,6 @@
     <t>35.8</t>
   </si>
   <si>
-    <t>0.000149</t>
-  </si>
-  <si>
     <t>0.0097</t>
   </si>
   <si>
@@ -372,24 +306,15 @@
     <t>86.1</t>
   </si>
   <si>
-    <t>0.801</t>
-  </si>
-  <si>
     <t>3.39</t>
   </si>
   <si>
-    <t>0.632</t>
-  </si>
-  <si>
     <t>3.30</t>
   </si>
   <si>
     <t>94.1</t>
   </si>
   <si>
-    <t>0.748</t>
-  </si>
-  <si>
     <t>0.0374</t>
   </si>
   <si>
@@ -406,6 +331,162 @@
   </si>
   <si>
     <t>62.4</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>8.17</t>
+  </si>
+  <si>
+    <t>6.32</t>
+  </si>
+  <si>
+    <t>6.88</t>
+  </si>
+  <si>
+    <t>-0.0754</t>
+  </si>
+  <si>
+    <t>-0.0513</t>
+  </si>
+  <si>
+    <t>8.67</t>
+  </si>
+  <si>
+    <t>-0.819</t>
+  </si>
+  <si>
+    <t>16.8</t>
+  </si>
+  <si>
+    <t>18.7</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.110</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>5.94</t>
+  </si>
+  <si>
+    <t>5.82</t>
+  </si>
+  <si>
+    <t>0.274</t>
+  </si>
+  <si>
+    <t>6.74</t>
+  </si>
+  <si>
+    <t>0.780</t>
+  </si>
+  <si>
+    <t>0.614</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>0.750</t>
+  </si>
+  <si>
+    <t>0.186</t>
+  </si>
+  <si>
+    <t>5.87</t>
+  </si>
+  <si>
+    <t>5.61</t>
+  </si>
+  <si>
+    <t>-0.769</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>0.485</t>
+  </si>
+  <si>
+    <t>3.89</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>3.92</t>
+  </si>
+  <si>
+    <t>6.53</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>6.70</t>
+  </si>
+  <si>
+    <t>0.777</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>94.5</t>
+  </si>
+  <si>
+    <t>0.771</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>95.8</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
 </sst>
 </file>
@@ -527,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -565,6 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,22 +961,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAD8544-942D-1144-84B0-83F5EE670AFF}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="35.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15" t="s">
@@ -902,21 +984,24 @@
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="16"/>
       <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="15" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="18" t="s">
@@ -926,37 +1011,46 @@
         <v>5</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="N2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="O2" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -964,175 +1058,211 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="7" t="s">
+      <c r="Q3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="I4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="L4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="N4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="O4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q4" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>82</v>
+        <v>107</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>120</v>
+      <c r="F6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -1144,41 +1274,50 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1186,243 +1325,294 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>59</v>
+        <v>140</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="O11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>113</v>
+        <v>138</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>71</v>
+        <v>133</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>98</v>
+        <v>128</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1432,29 +1622,32 @@
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
